--- a/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW13.xlsx
+++ b/input/dynamic_data/season_17/forecasting_method/average/argentina/forecast_point_GW13.xlsx
@@ -1889,37 +1889,37 @@
         <v>47.0</v>
       </c>
       <c r="B48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="C48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="D48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="E48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="F48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="G48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="H48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="I48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="J48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="K48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
       <c r="L48" t="n">
-        <v>2.1208833323043335</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="49">
@@ -6753,37 +6753,37 @@
         <v>175.0</v>
       </c>
       <c r="B176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="C176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="D176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="E176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="F176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="G176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="H176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="I176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="J176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="K176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
       <c r="L176" t="n">
-        <v>1.3167</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="177">
@@ -6829,37 +6829,37 @@
         <v>177.0</v>
       </c>
       <c r="B178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="C178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="D178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="E178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="F178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="G178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="H178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="I178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="J178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="K178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
       <c r="L178" t="n">
-        <v>2.896010526024</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="179">
@@ -6943,37 +6943,37 @@
         <v>180.0</v>
       </c>
       <c r="B181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="C181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="D181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="E181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="F181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="G181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="H181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="I181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="J181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="K181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
       <c r="L181" t="n">
-        <v>3.5834473680600003</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="182">
@@ -7399,37 +7399,37 @@
         <v>192.0</v>
       </c>
       <c r="B193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="C193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="D193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="E193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="F193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="G193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="H193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="I193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="J193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="K193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
       <c r="L193" t="n">
-        <v>1.026292105209</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="194">
@@ -8805,37 +8805,37 @@
         <v>229.0</v>
       </c>
       <c r="B230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="C230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="D230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="E230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="F230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="G230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="H230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="I230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="J230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="K230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
       <c r="L230" t="n">
-        <v>0.709468420836</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="231">
@@ -10249,37 +10249,37 @@
         <v>267.0</v>
       </c>
       <c r="B268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="C268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="D268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="E268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="F268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="G268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="H268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="I268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="J268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="K268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
       <c r="L268" t="n">
-        <v>0.658921052776</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="269">
@@ -11807,37 +11807,37 @@
         <v>308.0</v>
       </c>
       <c r="B309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="C309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="D309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="E309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="F309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="G309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="H309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="I309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="J309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="K309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
       <c r="L309" t="n">
-        <v>0.6124999998366666</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="310">
@@ -16481,37 +16481,37 @@
         <v>431.0</v>
       </c>
       <c r="B432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="C432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="D432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="E432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="F432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="G432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="H432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="I432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="J432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="K432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
       <c r="L432" t="n">
-        <v>1.7279407893825</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="433">
@@ -17127,37 +17127,37 @@
         <v>448.0</v>
       </c>
       <c r="B449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="C449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="D449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="E449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="F449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="G449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="H449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="I449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="J449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="K449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
       <c r="L449" t="n">
-        <v>1.7005855256775002</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="450">
@@ -19939,37 +19939,37 @@
         <v>522.0</v>
       </c>
       <c r="B523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="C523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="D523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="E523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="F523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="G523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="H523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="I523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="J523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="K523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
       <c r="L523" t="n">
-        <v>0.326098684282</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="524">
@@ -21231,37 +21231,37 @@
         <v>556.0</v>
       </c>
       <c r="B557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="C557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="D557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="E557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="F557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="G557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="H557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="I557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="J557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="K557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
       <c r="L557" t="n">
-        <v>0.319291666602</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="558">
@@ -23207,37 +23207,37 @@
         <v>608.0</v>
       </c>
       <c r="B609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="C609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="D609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="E609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="F609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="G609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="H609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="I609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="J609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="K609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
       <c r="L609" t="n">
-        <v>0.31120833341416665</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="610">
@@ -23663,37 +23663,37 @@
         <v>620.0</v>
       </c>
       <c r="B621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="C621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="D621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="E621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="F621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="G621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="H621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="I621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="J621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="K621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
       <c r="L621" t="n">
-        <v>3.661046053434</v>
+        <v>0.0</v>
       </c>
     </row>
     <row r="622">
